--- a/asia.xlsx
+++ b/asia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve"> Brunei Darussalam</t>
@@ -281,8 +284,8 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:K9 I14:K17 J25 J30:J32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -367,6 +370,15 @@
       <c r="H2" s="2" t="n">
         <v>23385</v>
       </c>
+      <c r="I2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L2" s="2" t="n">
         <v>15634</v>
       </c>
@@ -376,7 +388,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2010</v>
@@ -399,6 +411,15 @@
       <c r="H3" s="2" t="n">
         <v>42890</v>
       </c>
+      <c r="I3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L3" s="2" t="n">
         <v>16880</v>
       </c>
@@ -408,7 +429,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2015</v>
@@ -431,6 +452,15 @@
       <c r="H4" s="2" t="n">
         <v>31522</v>
       </c>
+      <c r="I4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L4" s="2" t="n">
         <v>17139</v>
       </c>
@@ -440,7 +470,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2020</v>
@@ -463,6 +493,15 @@
       <c r="H5" s="2" t="n">
         <v>18120</v>
       </c>
+      <c r="I5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L5" s="2" t="n">
         <v>16837</v>
       </c>
@@ -472,7 +511,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2005</v>
@@ -495,6 +534,15 @@
       <c r="H6" s="0" t="n">
         <v>164</v>
       </c>
+      <c r="I6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L6" s="0" t="n">
         <v>175</v>
       </c>
@@ -504,7 +552,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2010</v>
@@ -527,6 +575,15 @@
       <c r="H7" s="2" t="n">
         <v>1027</v>
       </c>
+      <c r="I7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L7" s="0" t="n">
         <v>188</v>
       </c>
@@ -536,7 +593,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2015</v>
@@ -559,6 +616,15 @@
       <c r="H8" s="2" t="n">
         <v>1198</v>
       </c>
+      <c r="I8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L8" s="0" t="n">
         <v>203</v>
       </c>
@@ -568,7 +634,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2020</v>
@@ -591,6 +657,15 @@
       <c r="H9" s="2" t="n">
         <v>1372</v>
       </c>
+      <c r="I9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L9" s="0" t="n">
         <v>217</v>
       </c>
@@ -600,7 +675,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2005</v>
@@ -641,7 +716,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2010</v>
@@ -682,7 +757,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2015</v>
@@ -723,7 +798,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2020</v>
@@ -764,7 +839,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2005</v>
@@ -787,6 +862,15 @@
       <c r="H14" s="2" t="n">
         <v>3186</v>
       </c>
+      <c r="I14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L14" s="0" t="n">
         <v>12</v>
       </c>
@@ -796,7 +880,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2010</v>
@@ -819,6 +903,15 @@
       <c r="H15" s="2" t="n">
         <v>5509</v>
       </c>
+      <c r="I15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L15" s="0" t="n">
         <v>14</v>
       </c>
@@ -828,7 +921,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2015</v>
@@ -851,6 +944,15 @@
       <c r="H16" s="2" t="n">
         <v>2294</v>
       </c>
+      <c r="I16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L16" s="0" t="n">
         <v>16</v>
       </c>
@@ -860,7 +962,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2020</v>
@@ -883,6 +985,15 @@
       <c r="H17" s="2" t="n">
         <v>1179</v>
       </c>
+      <c r="I17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="L17" s="0" t="n">
         <v>15</v>
       </c>
@@ -892,7 +1003,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2005</v>
@@ -933,7 +1044,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2010</v>
@@ -974,7 +1085,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2015</v>
@@ -1015,7 +1126,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2020</v>
@@ -1056,7 +1167,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2005</v>
@@ -1097,7 +1208,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2010</v>
@@ -1138,7 +1249,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2015</v>
@@ -1179,7 +1290,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2020</v>
@@ -1205,6 +1316,9 @@
       <c r="I25" s="0" t="n">
         <v>4.8</v>
       </c>
+      <c r="J25" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="K25" s="0" t="n">
         <v>0.823</v>
       </c>
@@ -1217,7 +1331,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2005</v>
@@ -1258,7 +1372,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2010</v>
@@ -1299,7 +1413,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2015</v>
@@ -1340,7 +1454,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2020</v>
@@ -1381,7 +1495,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2005</v>
@@ -1407,6 +1521,9 @@
       <c r="I30" s="0" t="n">
         <v>3.4</v>
       </c>
+      <c r="J30" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="K30" s="0" t="n">
         <v>0.808</v>
       </c>
@@ -1419,7 +1536,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2010</v>
@@ -1445,6 +1562,9 @@
       <c r="I31" s="0" t="n">
         <v>2.2</v>
       </c>
+      <c r="J31" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="K31" s="0" t="n">
         <v>0.839</v>
       </c>
@@ -1457,7 +1577,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2015</v>
@@ -1483,6 +1603,9 @@
       <c r="I32" s="0" t="n">
         <v>1.9</v>
       </c>
+      <c r="J32" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="K32" s="0" t="n">
         <v>0.906</v>
       </c>
@@ -1495,7 +1618,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2020</v>
@@ -1533,7 +1656,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2005</v>
@@ -1574,7 +1697,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2010</v>
@@ -1615,7 +1738,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2015</v>
@@ -1656,7 +1779,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2020</v>
@@ -1697,7 +1820,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2005</v>
@@ -1738,7 +1861,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2010</v>
@@ -1779,7 +1902,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2015</v>
@@ -1820,7 +1943,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2020</v>
@@ -1861,7 +1984,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2005</v>
@@ -1902,7 +2025,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2010</v>
@@ -1943,7 +2066,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>2015</v>
@@ -1984,7 +2107,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2020</v>
